--- a/docs/BNI groei berekening.xlsx
+++ b/docs/BNI groei berekening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dampee-my.sharepoint.com/personal/damiaan_umbrace_be/Documents/BNI/DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damiaan\Source\Repos\Bni-Growth-Calculator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E8D2416E-DB8E-4784-8046-BC961E64383B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EFE2C26-6F5C-44EA-AA96-23E221267DC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69248763-FABC-4C8A-8ADC-056363C88C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D9892D5-CEB9-4682-89F4-FE5627E85814}"/>
+    <workbookView xWindow="9645" yWindow="1935" windowWidth="16185" windowHeight="12825" xr2:uid="{7D9892D5-CEB9-4682-89F4-FE5627E85814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,12 +474,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A79CC7-3EAA-4125-BADC-25778B67D161}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -844,18 +845,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,18 +879,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB88264-B07B-492D-A7BF-D5F5F15F1706}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4297CFCA-CB05-44F2-A7C7-A282C8EB0788}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB88264-B07B-492D-A7BF-D5F5F15F1706}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>